--- a/incrimental_learning_1/rekap_incrimental.xlsx
+++ b/incrimental_learning_1/rekap_incrimental.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Bname</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>overall iterasi</t>
+  </si>
+  <si>
+    <t>F-Measure</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -102,7 +105,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +420,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
@@ -431,7 +434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -459,8 +462,11 @@
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +504,12 @@
         <f>SUM(K3,K11,K19,K27)/4</f>
         <v>0.73257730083333339</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <f>2*M3*N3/(M3+N3)</f>
+        <v>0.65880279868366731</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,8 +547,12 @@
         <f t="shared" ref="N4:N9" si="3">SUM(K4,K12,K20,K28)/4</f>
         <v>0.72038899916666665</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O9" si="4">2*M4*N4/(M4+N4)</f>
+        <v>0.75441786033520775</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -579,8 +593,12 @@
         <f t="shared" si="3"/>
         <v>0.87655808666666668</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8135692863513232</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,8 +636,12 @@
         <f t="shared" si="3"/>
         <v>0.86530030833333338</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86218215685266486</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,8 +679,12 @@
         <f t="shared" si="3"/>
         <v>0.80579400750000008</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.72009751046553083</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -696,8 +722,12 @@
         <f t="shared" si="3"/>
         <v>0.81424806250000004</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.81875175603854178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,8 +765,12 @@
         <f t="shared" si="3"/>
         <v>0.87789914916666667</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88508997637195674</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +801,7 @@
         <v>0.73180451333333341</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
@@ -790,15 +824,15 @@
         <v>0.66906476000000004</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:J17" si="4">SUM(D12,F12,H12)/3</f>
+        <f t="shared" ref="J12:J17" si="5">SUM(D12,F12,H12)/3</f>
         <v>0.77220238666666674</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:K17" si="5">SUM(E12,G12,I12)/3</f>
+        <f t="shared" ref="K12:K17" si="6">SUM(E12,G12,I12)/3</f>
         <v>0.73818973333333338</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,15 +855,15 @@
         <v>0.83030300000000001</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77193433333333328</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.87856131666666659</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,15 +886,15 @@
         <v>0.8006993</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85985074333333333</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86658734999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
@@ -883,15 +917,15 @@
         <v>0.72815529999999995</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63632365666666668</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79145213333333331</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,11 +948,11 @@
         <v>0.78927199999999997</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81186591333333336</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.82495594999999999</v>
       </c>
     </row>
@@ -945,11 +979,11 @@
         <v>0.82798576000000002</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90403430666666662</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.87376080999999994</v>
       </c>
     </row>
@@ -1007,11 +1041,11 @@
         <v>0.58159720000000004</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J25" si="6">SUM(D20,F20,H20)/3</f>
+        <f t="shared" ref="J20:J25" si="7">SUM(D20,F20,H20)/3</f>
         <v>0.7856776333333334</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20:K24" si="7">SUM(E20,G20,I20)/3</f>
+        <f t="shared" ref="K20:K24" si="8">SUM(E20,G20,I20)/3</f>
         <v>0.69772354333333331</v>
       </c>
     </row>
@@ -1038,11 +1072,11 @@
         <v>0.81506849999999997</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73746556666666663</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.87855680000000003</v>
       </c>
     </row>
@@ -1069,11 +1103,11 @@
         <v>0.80689657000000004</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85031622666666662</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.88141973333333334</v>
       </c>
     </row>
@@ -1100,11 +1134,11 @@
         <v>0.69607839999999999</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.64788644333333334</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.78689966666666677</v>
       </c>
     </row>
@@ -1131,11 +1165,11 @@
         <v>0.75095785000000004</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84331735333333346</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.80108128000000001</v>
       </c>
     </row>
@@ -1162,7 +1196,7 @@
         <v>0.83598362999999998</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.88550085000000001</v>
       </c>
       <c r="K25" s="1">
@@ -1224,11 +1258,11 @@
         <v>0.89807694999999998</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ref="J28:J33" si="8">SUM(D28,F28,H28)/3</f>
+        <f t="shared" ref="J28:J33" si="9">SUM(D28,F28,H28)/3</f>
         <v>0.78085301333333323</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" ref="K28:K33" si="9">SUM(E28,G28,I28)/3</f>
+        <f t="shared" ref="K28:K33" si="10">SUM(E28,G28,I28)/3</f>
         <v>0.71360626333333332</v>
       </c>
     </row>
@@ -1255,11 +1289,11 @@
         <v>0.97395830000000005</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.75455937666666661</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.86322140999999997</v>
       </c>
     </row>
@@ -1286,11 +1320,11 @@
         <v>0.96449700000000005</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.86463723333333331</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84742270000000008</v>
       </c>
     </row>
@@ -1317,11 +1351,11 @@
         <v>0.9478261</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.63438508000000005</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.79991128333333339</v>
       </c>
     </row>
@@ -1348,11 +1382,11 @@
         <v>0.90740739999999998</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.80664082000000004</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.83964951333333326</v>
       </c>
     </row>
@@ -1379,11 +1413,11 @@
         <v>0.96467780000000003</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.89015305</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.86883373333333347</v>
       </c>
     </row>
